--- a/output/fit_clients/fit_round_491.xlsx
+++ b/output/fit_clients/fit_round_491.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2042959220.518225</v>
+        <v>2321191351.500553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07265378766794968</v>
+        <v>0.07973112470881162</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04458379582699946</v>
+        <v>0.03289193931896233</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1021479611.682599</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1620266255.061899</v>
+        <v>1660646376.358719</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1360541532995589</v>
+        <v>0.1439686598020205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04124609349323698</v>
+        <v>0.0455665680841749</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>810133108.8118652</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3635014502.825685</v>
+        <v>3165350831.118434</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1127054345059678</v>
+        <v>0.1230893502110401</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03064082337246297</v>
+        <v>0.02939498818430799</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>177</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1817507239.769577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4040215336.019823</v>
+        <v>3560294793.255105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09901188777909092</v>
+        <v>0.07574679132267194</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04512166183526944</v>
+        <v>0.03724976914432152</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>181</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2020107669.096253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1759042811.064847</v>
+        <v>2478369152.568947</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1242974119207923</v>
+        <v>0.1426025553443416</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05422249461884228</v>
+        <v>0.04132237532479148</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>879521461.2264607</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2516704725.036304</v>
+        <v>3099228189.568059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0985598606745912</v>
+        <v>0.06437826323403857</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03652723638559063</v>
+        <v>0.03793814803332187</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>154</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1258352373.965407</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3967397874.535311</v>
+        <v>2773774967.236364</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2022648090436231</v>
+        <v>0.2125701348568111</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02836383857315935</v>
+        <v>0.02778119579261641</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>157</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1983699093.70101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1674985941.795732</v>
+        <v>2059089592.942338</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1751864323727417</v>
+        <v>0.1638710393782034</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03412800691070999</v>
+        <v>0.03100865487393413</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>837493042.6278229</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4384773224.440126</v>
+        <v>4268163077.225792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1579153659684661</v>
+        <v>0.2075046474520639</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03508466233599188</v>
+        <v>0.05130944939665179</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>206</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2192386663.95443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3352885080.160597</v>
+        <v>2936007795.438545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1826834485282433</v>
+        <v>0.1705364858529925</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04085482337570669</v>
+        <v>0.04613457149373288</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>202</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1676442507.623834</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2845189289.89597</v>
+        <v>2749225814.619921</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1269539463947334</v>
+        <v>0.1632843814603708</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0458023124658794</v>
+        <v>0.03504597832039018</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>167</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1422594648.81788</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3831171175.698104</v>
+        <v>4698112966.563367</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07519572612789234</v>
+        <v>0.06642891915997398</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02208289331677101</v>
+        <v>0.01989162583671374</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>165</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1915585651.374766</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3077657869.353065</v>
+        <v>2442181572.781375</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1829234980836645</v>
+        <v>0.1509233485979991</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03618231885429432</v>
+        <v>0.03702754792905079</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>156</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1538828963.514091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1367520669.487643</v>
+        <v>1775604254.817845</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09617003138040062</v>
+        <v>0.07691132305042739</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03119520691512902</v>
+        <v>0.03463107758780783</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>683760390.2302686</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2347731744.861782</v>
+        <v>2193249466.701227</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1150610944865563</v>
+        <v>0.07914745108197337</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04003579377142169</v>
+        <v>0.04931464049487819</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1173865916.876086</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4613225911.732622</v>
+        <v>5027175475.460979</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1499963752820008</v>
+        <v>0.1228206112244656</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05317181823674511</v>
+        <v>0.0424555949487192</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>145</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2306612960.198464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3214191406.1896</v>
+        <v>2468257814.4139</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1145310846078664</v>
+        <v>0.1157711957598661</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03075166519608113</v>
+        <v>0.02452053933217674</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>161</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1607095717.828445</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1167343254.030562</v>
+        <v>934034914.0308918</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1417032581741765</v>
+        <v>0.1520978911088219</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02672860530913582</v>
+        <v>0.01820400939378324</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>583671697.0127466</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2622540921.256536</v>
+        <v>2125351738.180412</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1613306409010719</v>
+        <v>0.1049152477676843</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0241407415432209</v>
+        <v>0.02371927847491069</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1311270420.696543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2004123142.194902</v>
+        <v>2319187841.094144</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06746120841022314</v>
+        <v>0.07544797319338645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03620575762105258</v>
+        <v>0.03498197075084115</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1002061606.687909</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3675714356.478724</v>
+        <v>2723311191.955261</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1362102339051362</v>
+        <v>0.1057755839418883</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05382174429779896</v>
+        <v>0.04897283635102927</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1837857199.330179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1190769502.488254</v>
+        <v>1506428368.99743</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1605110625693442</v>
+        <v>0.1414659396476427</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0389597856017607</v>
+        <v>0.04093325176653405</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>595384789.3104924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3345683631.970196</v>
+        <v>3846236153.998254</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1119099803008306</v>
+        <v>0.1085555698564994</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03367762899357703</v>
+        <v>0.03547516127613368</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1672841828.004317</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1327014235.144061</v>
+        <v>947410068.7407701</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09493779889458399</v>
+        <v>0.1026938857050882</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02967326406038883</v>
+        <v>0.03058015064210029</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>663507106.3326147</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1090694527.811594</v>
+        <v>1308582487.873713</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09521504977244077</v>
+        <v>0.08895340516264971</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03174796102609451</v>
+        <v>0.02610036168290344</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>545347258.2159255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4063776043.459793</v>
+        <v>4443517208.951564</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1231591974521458</v>
+        <v>0.09880083393477261</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01818462414257956</v>
+        <v>0.01713374617853665</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2031888028.724983</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2373577866.679753</v>
+        <v>3154973923.234312</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1138079220101817</v>
+        <v>0.1081418117589953</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03390316696210616</v>
+        <v>0.03298167569180417</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>158</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1186788890.235869</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4049336150.827446</v>
+        <v>4032173001.202413</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0927541719213896</v>
+        <v>0.1182360890456744</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04662304359532365</v>
+        <v>0.0290620280999297</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>217</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2024668088.829028</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2149629701.653915</v>
+        <v>1960708138.066726</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1388772863316524</v>
+        <v>0.1297242820938959</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02653605065431979</v>
+        <v>0.0391672179491513</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1074814905.32677</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1106676035.905512</v>
+        <v>939443256.8963368</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1107966295300762</v>
+        <v>0.0887400207145453</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0525874271119349</v>
+        <v>0.04463694798992977</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>553337991.398205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1480064778.58876</v>
+        <v>1369552271.08287</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08560730882655049</v>
+        <v>0.114565657950317</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03829846365541253</v>
+        <v>0.0250430089392322</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>740032453.5449919</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2355325584.496013</v>
+        <v>2799437314.398315</v>
       </c>
       <c r="F33" t="n">
-        <v>0.151961711830303</v>
+        <v>0.1606678580034941</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04222190548333581</v>
+        <v>0.0392731201898093</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1177662842.784299</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1151252666.881915</v>
+        <v>1532658554.409</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08989568651132263</v>
+        <v>0.09068084984820757</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0274323475926679</v>
+        <v>0.02227990221811967</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>575626346.4819285</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1016624727.978436</v>
+        <v>1271970519.614329</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09199609744085183</v>
+        <v>0.1038888419622025</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03749241693759484</v>
+        <v>0.03104342777482298</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>508312378.9389569</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2226632340.750285</v>
+        <v>2083292967.964391</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1727005655795438</v>
+        <v>0.1466309006485959</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02508642374775396</v>
+        <v>0.02509377323629482</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>124</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1113316214.286649</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2469238770.80512</v>
+        <v>1921636778.690422</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1116378176590941</v>
+        <v>0.102255085847505</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03976916648215644</v>
+        <v>0.02768984527100526</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>134</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1234619477.237317</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1556914825.396665</v>
+        <v>1918775236.725637</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09219608599755298</v>
+        <v>0.07896922886090869</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03313776887471895</v>
+        <v>0.0280102987534207</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>778457453.9393201</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1806768468.117654</v>
+        <v>1752878278.573265</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1888941367581673</v>
+        <v>0.1828131348434779</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0245539574809858</v>
+        <v>0.02853112681572573</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>903384257.9853692</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1524378166.580705</v>
+        <v>1544276656.428766</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1478355507643054</v>
+        <v>0.1011049253609983</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05007906228763909</v>
+        <v>0.05661026333493298</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>762189043.4043361</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1999305769.537406</v>
+        <v>2546423652.099812</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1070890288583492</v>
+        <v>0.1646371513416597</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0379150509890645</v>
+        <v>0.03356337594076918</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>999652959.1320742</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3058212360.709772</v>
+        <v>2869597839.476479</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1072315956289076</v>
+        <v>0.106875413294713</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02856821008488194</v>
+        <v>0.04542668614081723</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1529106144.818685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2504566662.501304</v>
+        <v>2732764390.127152</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1459737172818593</v>
+        <v>0.1757890439896249</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01681485225633619</v>
+        <v>0.02514408498943407</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>169</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1252283379.485494</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2301660604.607887</v>
+        <v>2004584659.551914</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08705938235213072</v>
+        <v>0.09590495397914529</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03042425357522294</v>
+        <v>0.03615954705608458</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1150830468.839243</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1785230624.289166</v>
+        <v>2205385715.27855</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1583138266658568</v>
+        <v>0.155517431859413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03635934451569618</v>
+        <v>0.0456847298214327</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>892615281.3631796</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3565156433.984531</v>
+        <v>4598816649.059245</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1656011777889277</v>
+        <v>0.1563167858845299</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0479081586669603</v>
+        <v>0.04353190182314921</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>174</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1782578161.636742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4131232352.314889</v>
+        <v>3592963672.847381</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1333739327608239</v>
+        <v>0.1296885477730682</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04229076207453501</v>
+        <v>0.05725123814151747</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>132</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2065616182.729095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3585023873.667337</v>
+        <v>4512766482.072381</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1096791579589138</v>
+        <v>0.1000068863565884</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02541732117780438</v>
+        <v>0.02895511526281758</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1792511995.32176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1684311985.625742</v>
+        <v>1274889879.021939</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1627748851423223</v>
+        <v>0.1660428284230794</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03345379387437229</v>
+        <v>0.02740347055333153</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>842155996.2066278</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3812071594.401752</v>
+        <v>2896997384.415349</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1587048659371356</v>
+        <v>0.1153489384780503</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03920510565329687</v>
+        <v>0.04989312063395145</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>168</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1906035799.284166</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1448894239.453114</v>
+        <v>1538487216.71633</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1653801349862344</v>
+        <v>0.1724437699744875</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03918993618521657</v>
+        <v>0.03630559739617013</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>724447130.9534857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3899895962.088756</v>
+        <v>4883421486.283262</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09701679383617381</v>
+        <v>0.1387606207648625</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05286999617134131</v>
+        <v>0.04973687643353554</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>202</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1949948043.441359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2495665910.079693</v>
+        <v>3685200239.494279</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1600937177710882</v>
+        <v>0.1323130849950254</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0222941471112584</v>
+        <v>0.02630845377948485</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1247833022.285843</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4877226710.210563</v>
+        <v>4760830108.525146</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1292123835767582</v>
+        <v>0.1403974960651359</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05168716181548165</v>
+        <v>0.04521429718966626</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2438613488.089035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3238068767.515409</v>
+        <v>3694849354.198343</v>
       </c>
       <c r="F55" t="n">
-        <v>0.167989489212694</v>
+        <v>0.2072660276329512</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02265874318080375</v>
+        <v>0.02080536126953006</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1619034325.094142</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1705716942.320603</v>
+        <v>1209839787.577513</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1201292866822008</v>
+        <v>0.1120495372599624</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04970104984930707</v>
+        <v>0.04240402257853175</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>852858482.9567647</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3463854704.532042</v>
+        <v>3055374701.731932</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1565789706842186</v>
+        <v>0.1342789574507083</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02645739722027955</v>
+        <v>0.02545257778909897</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>156</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1731927395.639405</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1832934251.445364</v>
+        <v>1292585155.365661</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1240349895065745</v>
+        <v>0.1573141670230942</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02775833169946229</v>
+        <v>0.02662580481642981</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>916467126.4984828</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5173362683.849504</v>
+        <v>4225994765.992556</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1178361208473383</v>
+        <v>0.08938045303953082</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0377837435721535</v>
+        <v>0.05008358626331095</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2586681261.295091</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3588251001.066171</v>
+        <v>2696351901.505437</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1850594839633555</v>
+        <v>0.1329339499281356</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02381168220503745</v>
+        <v>0.02895261553052527</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1794125632.609549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2126830655.499798</v>
+        <v>2291215028.933568</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1573755194881378</v>
+        <v>0.1216489322801104</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02922255075305923</v>
+        <v>0.02157049097614014</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>169</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1063415390.582716</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1640363630.212332</v>
+        <v>1957140087.777918</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1764997760883229</v>
+        <v>0.1857508943809829</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04400318977799263</v>
+        <v>0.04762067651990681</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>820181819.2173436</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3443547363.188872</v>
+        <v>3403060663.618229</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09369593934257797</v>
+        <v>0.06921198105086968</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03032475947013784</v>
+        <v>0.03230697794871051</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1721773768.809162</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3759170076.498548</v>
+        <v>4174936231.861896</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1611730019206793</v>
+        <v>0.1256361833937775</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03144661839715637</v>
+        <v>0.02385290741252944</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>153</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1879585057.190979</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4691810163.531573</v>
+        <v>4346686733.959309</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1684176432598891</v>
+        <v>0.1368463361188832</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01965982916608907</v>
+        <v>0.02474676512767748</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>176</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2345905059.089229</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3537392024.515883</v>
+        <v>4746817863.373311</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0981427371429605</v>
+        <v>0.1171871061453189</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04814805062937189</v>
+        <v>0.05085275706001523</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>145</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1768695961.122399</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3253885547.208477</v>
+        <v>2963739340.065355</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09601461375908535</v>
+        <v>0.0994528877381767</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04509761033319946</v>
+        <v>0.04690026059107606</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>158</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1626942770.361803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5360494483.190747</v>
+        <v>4355899152.183542</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1485331115681524</v>
+        <v>0.1059300929898042</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04820646435822922</v>
+        <v>0.03943550120673336</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2680247319.866966</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1699372584.043501</v>
+        <v>2425706372.820759</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1700493181471187</v>
+        <v>0.1336348015228493</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04148911221831655</v>
+        <v>0.04154125136971336</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>849686258.1291676</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3304805345.134925</v>
+        <v>2877794799.507367</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09034149648834329</v>
+        <v>0.06716456616078947</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03956771517328221</v>
+        <v>0.03903874989629299</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>141</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1652402669.394623</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4593392472.546773</v>
+        <v>5508480653.283136</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1246523122708554</v>
+        <v>0.1580193509536501</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0339928659671538</v>
+        <v>0.02399866642338577</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>179</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2296696311.682917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1624207022.171987</v>
+        <v>1660041079.415045</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1088555233534002</v>
+        <v>0.1086539857848888</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04704238119465665</v>
+        <v>0.03700946832289323</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>812103518.0782034</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2829728614.289156</v>
+        <v>2803586220.14858</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105001545581049</v>
+        <v>0.07131235312799011</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05207154706615937</v>
+        <v>0.04748044359040908</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>185</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1414864318.746218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2999867163.192877</v>
+        <v>2651876648.320437</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1229468392515066</v>
+        <v>0.1739438571897711</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02968381524227131</v>
+        <v>0.03413179914085244</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>167</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1499933647.041515</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2455259505.879005</v>
+        <v>1581732313.039422</v>
       </c>
       <c r="F75" t="n">
-        <v>0.159639325832711</v>
+        <v>0.1224872345353123</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03446985438174837</v>
+        <v>0.02951882920526511</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1227629674.472935</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3869662599.643179</v>
+        <v>3626509642.329565</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09694866147797085</v>
+        <v>0.1069296833756349</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02115618966340161</v>
+        <v>0.02993874339449829</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1934831279.117528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1602123982.722904</v>
+        <v>1391351597.757252</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1824417479626665</v>
+        <v>0.1225010765570358</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0197468764611655</v>
+        <v>0.02628054138196064</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>801061994.1109509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3142214732.917198</v>
+        <v>3082555576.98002</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1196877942124714</v>
+        <v>0.1054454330789178</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03801971181900463</v>
+        <v>0.04718233750154772</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>170</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1571107393.58357</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1240942005.834202</v>
+        <v>1547281013.055642</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1712282166434943</v>
+        <v>0.1463342634911289</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02969175444012518</v>
+        <v>0.03870913617703107</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>620470991.830189</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5131912031.371374</v>
+        <v>3459408479.782376</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07722532534517658</v>
+        <v>0.0877883991413924</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03610928338124904</v>
+        <v>0.02431795935081106</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2565956071.462842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3792004705.003518</v>
+        <v>4219689593.916393</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1280156943411252</v>
+        <v>0.1030426112020449</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02019730667551134</v>
+        <v>0.02615560429431187</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1896002308.024043</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5159189550.312181</v>
+        <v>5414122780.645267</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2140668748053687</v>
+        <v>0.2054870978020753</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0185008608078986</v>
+        <v>0.02314331224092187</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2579594750.260092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2295961998.181678</v>
+        <v>1610266334.073239</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1443446003957349</v>
+        <v>0.1583440837473585</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0454572367694994</v>
+        <v>0.02802003478521781</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1147981021.262694</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1593161795.45996</v>
+        <v>1568832056.995413</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1165609396404647</v>
+        <v>0.1053651261666761</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04681034302762069</v>
+        <v>0.05017169156255814</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>796580962.3850975</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3109612506.628609</v>
+        <v>2231924891.126307</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1190565452844987</v>
+        <v>0.1704506874878144</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05057586510680693</v>
+        <v>0.05256667620129266</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>183</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1554806325.590992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1756701603.220392</v>
+        <v>2629587820.789354</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1456474901741509</v>
+        <v>0.1272668228791403</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0256460044235505</v>
+        <v>0.02545011969590672</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>878350795.4171304</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>976951984.2781967</v>
+        <v>1006313211.171751</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1326542918746104</v>
+        <v>0.1490254064496048</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03566064925187688</v>
+        <v>0.02754636480545401</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>488475990.5779566</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3222806292.733137</v>
+        <v>3119373754.560339</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1403622842543162</v>
+        <v>0.1187506287266095</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03877393078748982</v>
+        <v>0.02614394416344108</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>195</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1611403198.856676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2320151746.560576</v>
+        <v>3340263762.472473</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1373604654887995</v>
+        <v>0.1068912885652188</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03344851320072905</v>
+        <v>0.03567061220284025</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>167</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1160075961.261073</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1931016390.396548</v>
+        <v>1437484523.553846</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1047262974386518</v>
+        <v>0.1144151917071124</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04188445057412179</v>
+        <v>0.03718638177694514</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>965508252.8115169</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1346775661.833409</v>
+        <v>1556874099.061274</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1662499605369373</v>
+        <v>0.1550920805405089</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04317286411563036</v>
+        <v>0.04946018848490474</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>673387890.3059597</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2861019795.429696</v>
+        <v>2828211429.048904</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08959153795981901</v>
+        <v>0.09970300462798917</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03043256472983584</v>
+        <v>0.04295298015145029</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>133</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1430509908.938091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4658432688.335225</v>
+        <v>3233438032.065174</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1292645261291387</v>
+        <v>0.1039060103133627</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04686821089692586</v>
+        <v>0.04733241586795121</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2329216302.24127</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2303188146.783159</v>
+        <v>1872682164.419731</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1652902161629017</v>
+        <v>0.1095220943765875</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02627034699437954</v>
+        <v>0.04309201545674954</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1151594111.28654</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2383376663.763961</v>
+        <v>2819434454.85721</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09303819140051255</v>
+        <v>0.08739888581108857</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03293331488379636</v>
+        <v>0.03350779993599402</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>119</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1191688376.461135</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2190620524.560145</v>
+        <v>1980702355.023711</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09703355220253934</v>
+        <v>0.08851106780518536</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04126990720417575</v>
+        <v>0.04426313369910675</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1095310228.922738</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3473080951.603912</v>
+        <v>4396476379.329536</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1405245814678172</v>
+        <v>0.174967142141088</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02550834290948998</v>
+        <v>0.02156086474538017</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1736540489.824894</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2590845230.658212</v>
+        <v>3342901814.416631</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1230735249671255</v>
+        <v>0.1121194250745685</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02452006640459251</v>
+        <v>0.02832329274751281</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>136</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1295422572.292376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2882542246.451953</v>
+        <v>3357812621.027084</v>
       </c>
       <c r="F99" t="n">
-        <v>0.142006888500099</v>
+        <v>0.09551193009900528</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02157251620516535</v>
+        <v>0.03115924810986912</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1441271100.673555</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3873883512.28245</v>
+        <v>4523227706.526486</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1144557733030129</v>
+        <v>0.1715125456538786</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02007452274462375</v>
+        <v>0.02145531707455115</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1936941816.779018</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2230176898.79537</v>
+        <v>2549476700.225702</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1894295894143039</v>
+        <v>0.1502421662250771</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04453133891268912</v>
+        <v>0.05828260119390834</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>199</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1115088436.748956</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_491.xlsx
+++ b/output/fit_clients/fit_round_491.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2321191351.500553</v>
+        <v>2353842750.084492</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07973112470881162</v>
+        <v>0.07377640785509536</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03289193931896233</v>
+        <v>0.03506653966404135</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1660646376.358719</v>
+        <v>2388838856.651137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1439686598020205</v>
+        <v>0.1785010413129746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0455665680841749</v>
+        <v>0.0370941657691001</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3165350831.118434</v>
+        <v>3629317562.463241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1230893502110401</v>
+        <v>0.1146727231288479</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02939498818430799</v>
+        <v>0.03745329880796366</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3560294793.255105</v>
+        <v>2878370137.735148</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07574679132267194</v>
+        <v>0.07551157142015635</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03724976914432152</v>
+        <v>0.0477397036049174</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2478369152.568947</v>
+        <v>2396477769.410826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1426025553443416</v>
+        <v>0.0963928650781166</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04132237532479148</v>
+        <v>0.0428486599623164</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3099228189.568059</v>
+        <v>2921045676.084521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06437826323403857</v>
+        <v>0.07120576992231814</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03793814803332187</v>
+        <v>0.04660287685002468</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2773774967.236364</v>
+        <v>3396702233.912244</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2125701348568111</v>
+        <v>0.1801375950525111</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02778119579261641</v>
+        <v>0.02710745122928769</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2059089592.942338</v>
+        <v>1448428812.785234</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1638710393782034</v>
+        <v>0.1314842044502164</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03100865487393413</v>
+        <v>0.03209520335807103</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4268163077.225792</v>
+        <v>3952055546.139699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2075046474520639</v>
+        <v>0.1823220613644864</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05130944939665179</v>
+        <v>0.03931301731770969</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2936007795.438545</v>
+        <v>3699198546.522432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1705364858529925</v>
+        <v>0.1894877778914143</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04613457149373288</v>
+        <v>0.0471596495228637</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2749225814.619921</v>
+        <v>2836890288.545237</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1632843814603708</v>
+        <v>0.186086271649838</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03504597832039018</v>
+        <v>0.05277615911678795</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4698112966.563367</v>
+        <v>5261613911.494503</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06642891915997398</v>
+        <v>0.0655401516951333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01989162583671374</v>
+        <v>0.02138935248089634</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2442181572.781375</v>
+        <v>2753023992.773402</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1509233485979991</v>
+        <v>0.1694605176330518</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03702754792905079</v>
+        <v>0.04419458891300963</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1775604254.817845</v>
+        <v>1760448643.869749</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07691132305042739</v>
+        <v>0.1029325440033947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03463107758780783</v>
+        <v>0.03584974918634529</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2193249466.701227</v>
+        <v>1759134474.982091</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07914745108197337</v>
+        <v>0.1087143909900664</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04931464049487819</v>
+        <v>0.03151881517523147</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5027175475.460979</v>
+        <v>5033573468.303493</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1228206112244656</v>
+        <v>0.111091895605313</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0424555949487192</v>
+        <v>0.05157273811576903</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2468257814.4139</v>
+        <v>2737560713.321713</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1157711957598661</v>
+        <v>0.1741358043253363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02452053933217674</v>
+        <v>0.03447262193485062</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>934034914.0308918</v>
+        <v>1312020177.338337</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1520978911088219</v>
+        <v>0.1862883334934752</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01820400939378324</v>
+        <v>0.02195227421485605</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2125351738.180412</v>
+        <v>2229931836.480872</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1049152477676843</v>
+        <v>0.1492802361244872</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02371927847491069</v>
+        <v>0.02671198985584005</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2319187841.094144</v>
+        <v>1821472276.01216</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07544797319338645</v>
+        <v>0.07381399242686698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03498197075084115</v>
+        <v>0.02800840293404323</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2723311191.955261</v>
+        <v>3682899213.714067</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1057755839418883</v>
+        <v>0.1123157105261414</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04897283635102927</v>
+        <v>0.03793076694404216</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1506428368.99743</v>
+        <v>957638184.0593736</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1414659396476427</v>
+        <v>0.1567518272773386</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04093325176653405</v>
+        <v>0.05331953811505177</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3846236153.998254</v>
+        <v>3564853565.08797</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1085555698564994</v>
+        <v>0.1288623391646606</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03547516127613368</v>
+        <v>0.02923632245259037</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>947410068.7407701</v>
+        <v>1422675817.845731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1026938857050882</v>
+        <v>0.08216634554615133</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03058015064210029</v>
+        <v>0.02937288688287487</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1308582487.873713</v>
+        <v>1292127022.211048</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08895340516264971</v>
+        <v>0.1068948561617294</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02610036168290344</v>
+        <v>0.03461309286846335</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4443517208.951564</v>
+        <v>3042640747.501036</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09880083393477261</v>
+        <v>0.1019359084907229</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01713374617853665</v>
+        <v>0.01921566746861826</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3154973923.234312</v>
+        <v>3054178494.939529</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1081418117589953</v>
+        <v>0.1257239299182962</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03298167569180417</v>
+        <v>0.04909676601609599</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4032173001.202413</v>
+        <v>5359750919.30591</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1182360890456744</v>
+        <v>0.1012359138459595</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0290620280999297</v>
+        <v>0.04497217422768677</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1960708138.066726</v>
+        <v>1700479992.782935</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1297242820938959</v>
+        <v>0.1297543051554914</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0391672179491513</v>
+        <v>0.02968170154344546</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>939443256.8963368</v>
+        <v>945875043.7694972</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0887400207145453</v>
+        <v>0.1097142997477873</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04463694798992977</v>
+        <v>0.03218712082736561</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1369552271.08287</v>
+        <v>1846723947.073397</v>
       </c>
       <c r="F32" t="n">
-        <v>0.114565657950317</v>
+        <v>0.08893379267768675</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0250430089392322</v>
+        <v>0.0334797123058496</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2799437314.398315</v>
+        <v>2101929384.119409</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1606678580034941</v>
+        <v>0.190276337136855</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0392731201898093</v>
+        <v>0.0521515396623194</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1532658554.409</v>
+        <v>1177852579.489507</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09068084984820757</v>
+        <v>0.09646872090836353</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02227990221811967</v>
+        <v>0.02525569030722382</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1271970519.614329</v>
+        <v>1246952225.285501</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1038888419622025</v>
+        <v>0.1181736514402203</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03104342777482298</v>
+        <v>0.03150246830532986</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2083292967.964391</v>
+        <v>1994172612.094934</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1466309006485959</v>
+        <v>0.1545102857808346</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02509377323629482</v>
+        <v>0.02506732219774556</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1921636778.690422</v>
+        <v>2029124405.800448</v>
       </c>
       <c r="F37" t="n">
-        <v>0.102255085847505</v>
+        <v>0.09315508676168478</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02768984527100526</v>
+        <v>0.03903259008939303</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1918775236.725637</v>
+        <v>1863762930.170632</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07896922886090869</v>
+        <v>0.08099802457177559</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0280102987534207</v>
+        <v>0.02711662609544796</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1752878278.573265</v>
+        <v>2167159666.554192</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1828131348434779</v>
+        <v>0.1885609977207312</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02853112681572573</v>
+        <v>0.03248254778774912</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1544276656.428766</v>
+        <v>1426079667.182917</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1011049253609983</v>
+        <v>0.1471007651442955</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05661026333493298</v>
+        <v>0.05025808149102066</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2546423652.099812</v>
+        <v>2644238654.018101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1646371513416597</v>
+        <v>0.1031568805142556</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03356337594076918</v>
+        <v>0.04687719738382756</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2869597839.476479</v>
+        <v>3150727585.7661</v>
       </c>
       <c r="F42" t="n">
-        <v>0.106875413294713</v>
+        <v>0.1132366120261081</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04542668614081723</v>
+        <v>0.02934476362105203</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2732764390.127152</v>
+        <v>1901863678.414837</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1757890439896249</v>
+        <v>0.186410491373056</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02514408498943407</v>
+        <v>0.01765412260019327</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2004584659.551914</v>
+        <v>2031253197.768478</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09590495397914529</v>
+        <v>0.09455848148209738</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03615954705608458</v>
+        <v>0.03491749649632025</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2205385715.27855</v>
+        <v>2524081116.359029</v>
       </c>
       <c r="F45" t="n">
-        <v>0.155517431859413</v>
+        <v>0.1211933510386213</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0456847298214327</v>
+        <v>0.03963545598498606</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4598816649.059245</v>
+        <v>4569797490.957772</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1563167858845299</v>
+        <v>0.133339615384477</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04353190182314921</v>
+        <v>0.0512666525988676</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3592963672.847381</v>
+        <v>3691457720.368413</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1296885477730682</v>
+        <v>0.1625954389143082</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05725123814151747</v>
+        <v>0.05532568860761868</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4512766482.072381</v>
+        <v>3628768046.043816</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1000068863565884</v>
+        <v>0.08873666522280282</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02895511526281758</v>
+        <v>0.02659997922225199</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1274889879.021939</v>
+        <v>1976708955.473179</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1660428284230794</v>
+        <v>0.1385055461024677</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02740347055333153</v>
+        <v>0.04016611461066018</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2896997384.415349</v>
+        <v>3980543641.475225</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1153489384780503</v>
+        <v>0.1628347442018426</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04989312063395145</v>
+        <v>0.04763881399414716</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1538487216.71633</v>
+        <v>1315489244.237434</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1724437699744875</v>
+        <v>0.1882999897815257</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03630559739617013</v>
+        <v>0.04526193088133623</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4883421486.283262</v>
+        <v>3341444227.302237</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1387606207648625</v>
+        <v>0.09727228514662462</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04973687643353554</v>
+        <v>0.06145913933159185</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3685200239.494279</v>
+        <v>3225983729.372087</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1323130849950254</v>
+        <v>0.1740986777574309</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02630845377948485</v>
+        <v>0.02676971370727941</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4760830108.525146</v>
+        <v>3637128798.988586</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1403974960651359</v>
+        <v>0.1610319429345049</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04521429718966626</v>
+        <v>0.04482868882429743</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3694849354.198343</v>
+        <v>3172835367.425624</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2072660276329512</v>
+        <v>0.1794871718548573</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02080536126953006</v>
+        <v>0.01963598303554306</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1209839787.577513</v>
+        <v>1255011368.896894</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1120495372599624</v>
+        <v>0.1404048979375991</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04240402257853175</v>
+        <v>0.05203401334083649</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3055374701.731932</v>
+        <v>3105094920.64624</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1342789574507083</v>
+        <v>0.1262086454797751</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02545257778909897</v>
+        <v>0.01671439422875233</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1292585155.365661</v>
+        <v>1605677676.252664</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1573141670230942</v>
+        <v>0.1479095901614665</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02662580481642981</v>
+        <v>0.03615462885391615</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4225994765.992556</v>
+        <v>3298156957.362</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08938045303953082</v>
+        <v>0.1279610952565265</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05008358626331095</v>
+        <v>0.04740562360960988</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2696351901.505437</v>
+        <v>3667001897.685928</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1329339499281356</v>
+        <v>0.2019079848493096</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02895261553052527</v>
+        <v>0.02390253201814432</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2291215028.933568</v>
+        <v>2822319492.601533</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1216489322801104</v>
+        <v>0.1713470901868388</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02157049097614014</v>
+        <v>0.0292646933115445</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1957140087.777918</v>
+        <v>2086740970.668774</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1857508943809829</v>
+        <v>0.154563606419178</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04762067651990681</v>
+        <v>0.04439417615444859</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3403060663.618229</v>
+        <v>4214361508.908902</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06921198105086968</v>
+        <v>0.06669810050773811</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03230697794871051</v>
+        <v>0.04476208644644544</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4174936231.861896</v>
+        <v>5486822828.470188</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1256361833937775</v>
+        <v>0.1311744897935798</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02385290741252944</v>
+        <v>0.02228149689382699</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4346686733.959309</v>
+        <v>4431637926.065631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1368463361188832</v>
+        <v>0.1055866135217957</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02474676512767748</v>
+        <v>0.02946849501903552</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4746817863.373311</v>
+        <v>4277457607.051564</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1171871061453189</v>
+        <v>0.1018873476004255</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05085275706001523</v>
+        <v>0.04167812444273615</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2963739340.065355</v>
+        <v>3126435871.976551</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0994528877381767</v>
+        <v>0.07193355937207196</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04690026059107606</v>
+        <v>0.03440025239699127</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4355899152.183542</v>
+        <v>5680931905.969808</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1059300929898042</v>
+        <v>0.1254230683726234</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03943550120673336</v>
+        <v>0.03168037823508189</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2425706372.820759</v>
+        <v>2295768606.489902</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1336348015228493</v>
+        <v>0.1435228483411801</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04154125136971336</v>
+        <v>0.0421648729698753</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2877794799.507367</v>
+        <v>2816761980.909747</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06716456616078947</v>
+        <v>0.08541410339250223</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03903874989629299</v>
+        <v>0.03346983745155009</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5508480653.283136</v>
+        <v>4864726175.36265</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1580193509536501</v>
+        <v>0.1379497671541863</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02399866642338577</v>
+        <v>0.02106494623592087</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1660041079.415045</v>
+        <v>1541550230.9365</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1086539857848888</v>
+        <v>0.06826000542729613</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03700946832289323</v>
+        <v>0.04874689158168269</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2803586220.14858</v>
+        <v>3348454141.119925</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07131235312799011</v>
+        <v>0.1105016361071047</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04748044359040908</v>
+        <v>0.03811259303769686</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2651876648.320437</v>
+        <v>3801308244.272878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1739438571897711</v>
+        <v>0.1849718377570234</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03413179914085244</v>
+        <v>0.03393308764894785</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1581732313.039422</v>
+        <v>2190384850.112067</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1224872345353123</v>
+        <v>0.1336162841703043</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02951882920526511</v>
+        <v>0.02875656965028496</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3626509642.329565</v>
+        <v>3861908477.142941</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1069296833756349</v>
+        <v>0.09708695990535547</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02993874339449829</v>
+        <v>0.03427088665096152</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1391351597.757252</v>
+        <v>1494340242.712934</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1225010765570358</v>
+        <v>0.1812907176916696</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02628054138196064</v>
+        <v>0.02942449063638851</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3082555576.98002</v>
+        <v>3716318754.787476</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1054454330789178</v>
+        <v>0.1196290443326629</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04718233750154772</v>
+        <v>0.04972038710147411</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1547281013.055642</v>
+        <v>1577938939.659256</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1463342634911289</v>
+        <v>0.1218694800536636</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03870913617703107</v>
+        <v>0.02579094527338057</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3459408479.782376</v>
+        <v>4449740780.933264</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0877883991413924</v>
+        <v>0.06978940624115913</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02431795935081106</v>
+        <v>0.03471564916114173</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4219689593.916393</v>
+        <v>4247195421.732179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1030426112020449</v>
+        <v>0.1163839071845937</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02615560429431187</v>
+        <v>0.02556466353787007</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5414122780.645267</v>
+        <v>4211361893.706644</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2054870978020753</v>
+        <v>0.2042455737265549</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02314331224092187</v>
+        <v>0.02240626134056715</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1610266334.073239</v>
+        <v>2222391377.895989</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1583440837473585</v>
+        <v>0.1361851243913111</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02802003478521781</v>
+        <v>0.03409459282268741</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1568832056.995413</v>
+        <v>1593438556.44315</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1053651261666761</v>
+        <v>0.1144391194098319</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05017169156255814</v>
+        <v>0.04165143149182496</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2231924891.126307</v>
+        <v>2568590669.838754</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1704506874878144</v>
+        <v>0.1755833987647448</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05256667620129266</v>
+        <v>0.05104696869839703</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2629587820.789354</v>
+        <v>1873236356.289234</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1272668228791403</v>
+        <v>0.1474609338476946</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02545011969590672</v>
+        <v>0.01883734080272829</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1006313211.171751</v>
+        <v>933805904.5226324</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1490254064496048</v>
+        <v>0.1278829318939203</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02754636480545401</v>
+        <v>0.03034539580700477</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3119373754.560339</v>
+        <v>2313546344.153603</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1187506287266095</v>
+        <v>0.1309835997130776</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02614394416344108</v>
+        <v>0.0304973835215273</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3340263762.472473</v>
+        <v>2264174656.664831</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1068912885652188</v>
+        <v>0.1452529942210644</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03567061220284025</v>
+        <v>0.03205452281147698</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1437484523.553846</v>
+        <v>1955673092.575592</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1144151917071124</v>
+        <v>0.1083499468573785</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03718638177694514</v>
+        <v>0.03677504920329755</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1556874099.061274</v>
+        <v>1981400477.271406</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1550920805405089</v>
+        <v>0.1226056361526826</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04946018848490474</v>
+        <v>0.06046854079242094</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2828211429.048904</v>
+        <v>2497840002.076754</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09970300462798917</v>
+        <v>0.08571617116874551</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04295298015145029</v>
+        <v>0.04512933979193448</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3233438032.065174</v>
+        <v>4372596175.826777</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1039060103133627</v>
+        <v>0.1279059567562818</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04733241586795121</v>
+        <v>0.03413156217128716</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1872682164.419731</v>
+        <v>1981767060.045975</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1095220943765875</v>
+        <v>0.1209891169252042</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04309201545674954</v>
+        <v>0.03672451735571006</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2819434454.85721</v>
+        <v>3102792640.234783</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08739888581108857</v>
+        <v>0.09750692064112898</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03350779993599402</v>
+        <v>0.05175367604612041</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1980702355.023711</v>
+        <v>2329274027.510676</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08851106780518536</v>
+        <v>0.1392904457772855</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04426313369910675</v>
+        <v>0.04502253450056987</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4396476379.329536</v>
+        <v>4582118305.77987</v>
       </c>
       <c r="F97" t="n">
-        <v>0.174967142141088</v>
+        <v>0.1295762931633569</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02156086474538017</v>
+        <v>0.01916069355239754</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3342901814.416631</v>
+        <v>3933954178.495354</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1121194250745685</v>
+        <v>0.1113033620583587</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02832329274751281</v>
+        <v>0.02582533717726047</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3357812621.027084</v>
+        <v>2500484982.03548</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09551193009900528</v>
+        <v>0.1481013412905327</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03115924810986912</v>
+        <v>0.02524857499787916</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4523227706.526486</v>
+        <v>3779388828.786295</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1715125456538786</v>
+        <v>0.1721753075655665</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02145531707455115</v>
+        <v>0.01959313080463281</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2549476700.225702</v>
+        <v>2989469169.726451</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1502421662250771</v>
+        <v>0.2221800416635326</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05828260119390834</v>
+        <v>0.04092224188126115</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_491.xlsx
+++ b/output/fit_clients/fit_round_491.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2353842750.084492</v>
+        <v>2289977985.610877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07377640785509536</v>
+        <v>0.06913978409803026</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03506653966404135</v>
+        <v>0.03753043312801971</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2388838856.651137</v>
+        <v>2426194258.081594</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1785010413129746</v>
+        <v>0.1279561173029314</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0370941657691001</v>
+        <v>0.05060676948146658</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3629317562.463241</v>
+        <v>4963750173.958925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1146727231288479</v>
+        <v>0.1139908357970954</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03745329880796366</v>
+        <v>0.0350045394451539</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>247</v>
+      </c>
+      <c r="J4" t="n">
+        <v>491</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2878370137.735148</v>
+        <v>3020964178.23559</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07551157142015635</v>
+        <v>0.07708843620537381</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0477397036049174</v>
+        <v>0.04334676364567395</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>208</v>
+      </c>
+      <c r="J5" t="n">
+        <v>490</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.71970519163158</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2396477769.410826</v>
+        <v>2842416366.109277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0963928650781166</v>
+        <v>0.1239156836715142</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0428486599623164</v>
+        <v>0.05157646561171413</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2921045676.084521</v>
+        <v>1950490850.382397</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07120576992231814</v>
+        <v>0.09427793137481798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04660287685002468</v>
+        <v>0.03758979637143636</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3396702233.912244</v>
+        <v>3170385355.971361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1801375950525111</v>
+        <v>0.158421520359098</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02710745122928769</v>
+        <v>0.02671044867452576</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>139</v>
+      </c>
+      <c r="J8" t="n">
+        <v>491</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35.10591615365912</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1448428812.785234</v>
+        <v>1466490387.453126</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1314842044502164</v>
+        <v>0.184138053531611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03209520335807103</v>
+        <v>0.02657918675332328</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3952055546.139699</v>
+        <v>3701456475.78922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1823220613644864</v>
+        <v>0.1894089657280867</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03931301731770969</v>
+        <v>0.04790067782158658</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>371</v>
+      </c>
+      <c r="J10" t="n">
+        <v>490</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27.41340628230978</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3699198546.522432</v>
+        <v>2798202563.3399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1894877778914143</v>
+        <v>0.1235996697564639</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0471596495228637</v>
+        <v>0.04327827138828951</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>206</v>
+      </c>
+      <c r="J11" t="n">
+        <v>489</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2836890288.545237</v>
+        <v>2760942014.479313</v>
       </c>
       <c r="F12" t="n">
-        <v>0.186086271649838</v>
+        <v>0.1796964674547803</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05277615911678795</v>
+        <v>0.05165525163103218</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5261613911.494503</v>
+        <v>3418527853.80231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0655401516951333</v>
+        <v>0.1007146296478326</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02138935248089634</v>
+        <v>0.0247991635189342</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>254</v>
+      </c>
+      <c r="J13" t="n">
+        <v>490</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25.23968284450706</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2753023992.773402</v>
+        <v>2617700978.705598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1694605176330518</v>
+        <v>0.1711401402246331</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04419458891300963</v>
+        <v>0.02689171732166407</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>116</v>
+      </c>
+      <c r="J14" t="n">
+        <v>490</v>
+      </c>
+      <c r="K14" t="n">
+        <v>26.36476267959991</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1760448643.869749</v>
+        <v>1759491167.62679</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1029325440033947</v>
+        <v>0.09116756914902367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03584974918634529</v>
+        <v>0.03417594192434036</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1759134474.982091</v>
+        <v>2152932969.221215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1087143909900664</v>
+        <v>0.1112019186153431</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03151881517523147</v>
+        <v>0.0487927071378963</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1036,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5033573468.303493</v>
+        <v>4632528766.417439</v>
       </c>
       <c r="F17" t="n">
-        <v>0.111091895605313</v>
+        <v>0.1410667765381203</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05157273811576903</v>
+        <v>0.04377266304970649</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>239</v>
+      </c>
+      <c r="J17" t="n">
+        <v>491</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2737560713.321713</v>
+        <v>2442127396.348408</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1741358043253363</v>
+        <v>0.1622604066317589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03447262193485062</v>
+        <v>0.02129011308731432</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>131</v>
+      </c>
+      <c r="J18" t="n">
+        <v>488</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1312020177.338337</v>
+        <v>938084147.2213904</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1862883334934752</v>
+        <v>0.1912275023026411</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02195227421485605</v>
+        <v>0.02430259156499635</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2229931836.480872</v>
+        <v>2094867290.800739</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1492802361244872</v>
+        <v>0.142658353761328</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02671198985584005</v>
+        <v>0.0312361008122031</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1821472276.01216</v>
+        <v>2561703233.216396</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07381399242686698</v>
+        <v>0.0668141989168075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02800840293404323</v>
+        <v>0.0454212972476148</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3682899213.714067</v>
+        <v>3495362571.972457</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1123157105261414</v>
+        <v>0.1188723129942764</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03793076694404216</v>
+        <v>0.03624810596127906</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>143</v>
+      </c>
+      <c r="J22" t="n">
+        <v>491</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>957638184.0593736</v>
+        <v>1519603540.681412</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1567518272773386</v>
+        <v>0.1434437302691795</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05331953811505177</v>
+        <v>0.04494495059021113</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3564853565.08797</v>
+        <v>2661764620.626846</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1288623391646606</v>
+        <v>0.1385646720421824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02923632245259037</v>
+        <v>0.03624918899379672</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>155</v>
+      </c>
+      <c r="J24" t="n">
+        <v>489</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1422675817.845731</v>
+        <v>1066853002.835916</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08216634554615133</v>
+        <v>0.09324416481436812</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02937288688287487</v>
+        <v>0.03093174633403062</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1292127022.211048</v>
+        <v>1196457716.471552</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1068948561617294</v>
+        <v>0.09367445797254141</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03461309286846335</v>
+        <v>0.03729243131563752</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3042640747.501036</v>
+        <v>4226997562.4244</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1019359084907229</v>
+        <v>0.1480408401061747</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01921566746861826</v>
+        <v>0.02660751549848368</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>219</v>
+      </c>
+      <c r="J27" t="n">
+        <v>491</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3054178494.939529</v>
+        <v>3614427011.936429</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1257239299182962</v>
+        <v>0.1108328664597848</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04909676601609599</v>
+        <v>0.05014532931979051</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>121</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5359750919.30591</v>
+        <v>5155004087.212507</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1012359138459595</v>
+        <v>0.1375067518049311</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04497217422768677</v>
+        <v>0.03435599517723628</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>386</v>
+      </c>
+      <c r="J29" t="n">
+        <v>491</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1700479992.782935</v>
+        <v>1811609864.144879</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1297543051554914</v>
+        <v>0.08927490290958298</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02968170154344546</v>
+        <v>0.03687279389001728</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>945875043.7694972</v>
+        <v>1138387317.010345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1097142997477873</v>
+        <v>0.1025131506277594</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03218712082736561</v>
+        <v>0.03681545312794359</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1846723947.073397</v>
+        <v>1255507451.80396</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08893379267768675</v>
+        <v>0.1189233202369671</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0334797123058496</v>
+        <v>0.03479281653410384</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2101929384.119409</v>
+        <v>2880558785.089206</v>
       </c>
       <c r="F33" t="n">
-        <v>0.190276337136855</v>
+        <v>0.1564629743899831</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0521515396623194</v>
+        <v>0.04897454859056662</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1177852579.489507</v>
+        <v>1547944155.016122</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09646872090836353</v>
+        <v>0.1096944254006654</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02525569030722382</v>
+        <v>0.02418341653424663</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1246952225.285501</v>
+        <v>949575107.2588814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1181736514402203</v>
+        <v>0.07733244175270991</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03150246830532986</v>
+        <v>0.03947450461979244</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1994172612.094934</v>
+        <v>2370751952.353761</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1545102857808346</v>
+        <v>0.1735631326175765</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02506732219774556</v>
+        <v>0.02120950920680038</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2029124405.800448</v>
+        <v>2436771757.906259</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09315508676168478</v>
+        <v>0.0922902441689965</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03903259008939303</v>
+        <v>0.039009674153572</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1863762930.170632</v>
+        <v>2131013381.266136</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08099802457177559</v>
+        <v>0.1161699828898485</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02711662609544796</v>
+        <v>0.03948520343258075</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2167159666.554192</v>
+        <v>2083891403.454272</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1885609977207312</v>
+        <v>0.1593066152114711</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03248254778774912</v>
+        <v>0.02854362344020954</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1426079667.182917</v>
+        <v>1687709218.802849</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1471007651442955</v>
+        <v>0.1234701465274159</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05025808149102066</v>
+        <v>0.05037131871383126</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2644238654.018101</v>
+        <v>2263029230.713466</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1031568805142556</v>
+        <v>0.1489300498450307</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04687719738382756</v>
+        <v>0.02936751274816344</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3150727585.7661</v>
+        <v>3263149919.885776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1132366120261081</v>
+        <v>0.1157775259005072</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02934476362105203</v>
+        <v>0.04569606875128459</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1901863678.414837</v>
+        <v>1855655398.917063</v>
       </c>
       <c r="F43" t="n">
-        <v>0.186410491373056</v>
+        <v>0.185727752372094</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01765412260019327</v>
+        <v>0.0197464344737727</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2031253197.768478</v>
+        <v>1995430250.515003</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09455848148209738</v>
+        <v>0.077201424450266</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03491749649632025</v>
+        <v>0.02502059230659161</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2524081116.359029</v>
+        <v>1762801062.044247</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1211933510386213</v>
+        <v>0.1192442249232198</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03963545598498606</v>
+        <v>0.05135613797432365</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4569797490.957772</v>
+        <v>5616302564.817309</v>
       </c>
       <c r="F46" t="n">
-        <v>0.133339615384477</v>
+        <v>0.1721788200384518</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0512666525988676</v>
+        <v>0.05221816422636481</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>288</v>
+      </c>
+      <c r="J46" t="n">
+        <v>491</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3691457720.368413</v>
+        <v>3339851633.5973</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1625954389143082</v>
+        <v>0.157712126609024</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05532568860761868</v>
+        <v>0.04317882933096652</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>223</v>
+      </c>
+      <c r="J47" t="n">
+        <v>489</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2121,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3628768046.043816</v>
+        <v>2981189480.81844</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08873666522280282</v>
+        <v>0.09616193889009586</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02659997922225199</v>
+        <v>0.0291284692293469</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>246</v>
+      </c>
+      <c r="J48" t="n">
+        <v>489</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2156,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1976708955.473179</v>
+        <v>1703367485.386423</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1385055461024677</v>
+        <v>0.1412693906758009</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04016611461066018</v>
+        <v>0.02865622724263406</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3980543641.475225</v>
+        <v>3636484785.479971</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1628347442018426</v>
+        <v>0.1317944752676303</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04763881399414716</v>
+        <v>0.03258010997909491</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>177</v>
+      </c>
+      <c r="J50" t="n">
+        <v>491</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1315489244.237434</v>
+        <v>1177828188.111182</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1882999897815257</v>
+        <v>0.1502659193241528</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04526193088133623</v>
+        <v>0.03684906446991256</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2255,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3341444227.302237</v>
+        <v>3328501002.64698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09727228514662462</v>
+        <v>0.136678385679205</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06145913933159185</v>
+        <v>0.03726873407946164</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>274</v>
+      </c>
+      <c r="J52" t="n">
+        <v>489</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2290,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3225983729.372087</v>
+        <v>3188834991.3019</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1740986777574309</v>
+        <v>0.1629460283543384</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02676971370727941</v>
+        <v>0.02898742720970868</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>77</v>
+      </c>
+      <c r="J53" t="n">
+        <v>488</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2331,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3637128798.988586</v>
+        <v>4701369816.622574</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1610319429345049</v>
+        <v>0.1149814821410732</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04482868882429743</v>
+        <v>0.05305317180603832</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>258</v>
+      </c>
+      <c r="J54" t="n">
+        <v>491</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2360,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3172835367.425624</v>
+        <v>3443383513.726886</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1794871718548573</v>
+        <v>0.1853610423604578</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01963598303554306</v>
+        <v>0.02918424886804567</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>242</v>
+      </c>
+      <c r="J55" t="n">
+        <v>491</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29.34518831990956</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2397,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1255011368.896894</v>
+        <v>1808942026.753837</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1404048979375991</v>
+        <v>0.1341891390067959</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05203401334083649</v>
+        <v>0.04178327146764605</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2438,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3105094920.64624</v>
+        <v>3309110173.241462</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1262086454797751</v>
+        <v>0.1237194984753486</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01671439422875233</v>
+        <v>0.02604010347860635</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>490</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.46773161623597</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2469,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1605677676.252664</v>
+        <v>1623011906.353557</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1479095901614665</v>
+        <v>0.1404580745845016</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03615462885391615</v>
+        <v>0.03168569970443023</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3298156957.362</v>
+        <v>3464302193.126987</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1279610952565265</v>
+        <v>0.1207081783788468</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04740562360960988</v>
+        <v>0.04510352836280064</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>241</v>
+      </c>
+      <c r="J59" t="n">
+        <v>490</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26.53910565025582</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2541,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3667001897.685928</v>
+        <v>3148198104.048727</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2019079848493096</v>
+        <v>0.1297768990173326</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02390253201814432</v>
+        <v>0.02705029285415261</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>100</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="n">
+        <v>41.50682453076783</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2822319492.601533</v>
+        <v>3147194400.527438</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1713470901868388</v>
+        <v>0.1452653426705287</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0292646933115445</v>
+        <v>0.03166170690970298</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2086740970.668774</v>
+        <v>2088758073.761295</v>
       </c>
       <c r="F62" t="n">
-        <v>0.154563606419178</v>
+        <v>0.177615165063705</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04439417615444859</v>
+        <v>0.04951008121626017</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4214361508.908902</v>
+        <v>4943030328.740537</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06669810050773811</v>
+        <v>0.06503380570869589</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04476208644644544</v>
+        <v>0.03113025136094073</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>245</v>
+      </c>
+      <c r="J63" t="n">
+        <v>490</v>
+      </c>
+      <c r="K63" t="n">
+        <v>28.68645462142999</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5486822828.470188</v>
+        <v>5352352778.449903</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1311744897935798</v>
+        <v>0.1399844579165858</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02228149689382699</v>
+        <v>0.02958384554298734</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>244</v>
+      </c>
+      <c r="J64" t="n">
+        <v>491</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4431637926.065631</v>
+        <v>5782247030.561163</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1055866135217957</v>
+        <v>0.166203324262767</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02946849501903552</v>
+        <v>0.02741688303922</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>343</v>
+      </c>
+      <c r="J65" t="n">
+        <v>490</v>
+      </c>
+      <c r="K65" t="n">
+        <v>24.65092774614496</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2763,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4277457607.051564</v>
+        <v>4141092066.125475</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1018873476004255</v>
+        <v>0.1282944776041112</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04167812444273615</v>
+        <v>0.0422305915692219</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>243</v>
+      </c>
+      <c r="J66" t="n">
+        <v>491</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3126435871.976551</v>
+        <v>2642587022.983928</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07193355937207196</v>
+        <v>0.09946232888752947</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03440025239699127</v>
+        <v>0.0496895042556681</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5680931905.969808</v>
+        <v>4508456914.653902</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1254230683726234</v>
+        <v>0.1356725118540892</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03168037823508189</v>
+        <v>0.04041881953825478</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>266</v>
+      </c>
+      <c r="J68" t="n">
+        <v>491</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2295768606.489902</v>
+        <v>1610892069.411297</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1435228483411801</v>
+        <v>0.1729437253722765</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0421648729698753</v>
+        <v>0.03761681400430431</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2816761980.909747</v>
+        <v>3582065102.312148</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08541410339250223</v>
+        <v>0.08552042170339109</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03346983745155009</v>
+        <v>0.0463078389874504</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>75</v>
+      </c>
+      <c r="J70" t="n">
+        <v>491</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4864726175.36265</v>
+        <v>4512001970.931949</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1379497671541863</v>
+        <v>0.1697460911770284</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02106494623592087</v>
+        <v>0.02095840149062995</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>330</v>
+      </c>
+      <c r="J71" t="n">
+        <v>490</v>
+      </c>
+      <c r="K71" t="n">
+        <v>26.1778640891523</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1541550230.9365</v>
+        <v>2002882587.011616</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06826000542729613</v>
+        <v>0.1001829588079693</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04874689158168269</v>
+        <v>0.04208127739118175</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3010,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3348454141.119925</v>
+        <v>2900541871.625566</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105016361071047</v>
+        <v>0.09057616873555349</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03811259303769686</v>
+        <v>0.03266412763765149</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>47</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="n">
+        <v>48.37332436722008</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3801308244.272878</v>
+        <v>2672018512.382028</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1849718377570234</v>
+        <v>0.1419932600200716</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03393308764894785</v>
+        <v>0.03403766823993695</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2190384850.112067</v>
+        <v>1938187780.860877</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1336162841703043</v>
+        <v>0.1070214522954926</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02875656965028496</v>
+        <v>0.03583388201735439</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3861908477.142941</v>
+        <v>3955045199.846401</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09708695990535547</v>
+        <v>0.1207253005784893</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03427088665096152</v>
+        <v>0.0266053709762367</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>236</v>
+      </c>
+      <c r="J76" t="n">
+        <v>490</v>
+      </c>
+      <c r="K76" t="n">
+        <v>27.8687222020051</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1494340242.712934</v>
+        <v>1441326206.123658</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1812907176916696</v>
+        <v>0.1663996222370383</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02942449063638851</v>
+        <v>0.02184715004999276</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3189,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3716318754.787476</v>
+        <v>2901434739.519824</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1196290443326629</v>
+        <v>0.1218380817365678</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04972038710147411</v>
+        <v>0.04918903042441001</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>243</v>
+      </c>
+      <c r="J78" t="n">
+        <v>488</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1577938939.659256</v>
+        <v>1228037204.265656</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1218694800536636</v>
+        <v>0.1249407196109062</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02579094527338057</v>
+        <v>0.03189789556839425</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3259,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4449740780.933264</v>
+        <v>4489120572.615591</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06978940624115913</v>
+        <v>0.1079646072009747</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03471564916114173</v>
+        <v>0.02408163465021946</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>240</v>
+      </c>
+      <c r="J80" t="n">
+        <v>490</v>
+      </c>
+      <c r="K80" t="n">
+        <v>23.06289156739579</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4247195421.732179</v>
+        <v>4363649616.828751</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1163839071845937</v>
+        <v>0.1294233311399051</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02556466353787007</v>
+        <v>0.02909258927514933</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>230</v>
+      </c>
+      <c r="J81" t="n">
+        <v>490</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28.46319616793867</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4211361893.706644</v>
+        <v>4039901257.64356</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2042455737265549</v>
+        <v>0.1481096966449783</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02240626134056715</v>
+        <v>0.02923383926815785</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>321</v>
+      </c>
+      <c r="J82" t="n">
+        <v>490</v>
+      </c>
+      <c r="K82" t="n">
+        <v>29.06146539999478</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2222391377.895989</v>
+        <v>1620165191.848932</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1361851243913111</v>
+        <v>0.1185608730538093</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03409459282268741</v>
+        <v>0.0319829161511531</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1593438556.44315</v>
+        <v>1891838747.553349</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1144391194098319</v>
+        <v>0.1102080796686222</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04165143149182496</v>
+        <v>0.04655490382811348</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2568590669.838754</v>
+        <v>2932663314.121819</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1755833987647448</v>
+        <v>0.1560454204808534</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05104696869839703</v>
+        <v>0.04049740690438211</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1873236356.289234</v>
+        <v>2731650204.801591</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1474609338476946</v>
+        <v>0.1638607445865459</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01883734080272829</v>
+        <v>0.0261633230894903</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>933805904.5226324</v>
+        <v>1028375130.097158</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1278829318939203</v>
+        <v>0.1649714763204513</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03034539580700477</v>
+        <v>0.03145772464912877</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2313546344.153603</v>
+        <v>2886679661.216101</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1309835997130776</v>
+        <v>0.1360339192287572</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0304973835215273</v>
+        <v>0.03265515762301167</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2264174656.664831</v>
+        <v>3438062218.186402</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1452529942210644</v>
+        <v>0.1430097796530938</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03205452281147698</v>
+        <v>0.03825502475334807</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>491</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1955673092.575592</v>
+        <v>1946510447.462817</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1083499468573785</v>
+        <v>0.1295210261389821</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03677504920329755</v>
+        <v>0.0362970845171622</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1981400477.271406</v>
+        <v>1784616241.913623</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1226056361526826</v>
+        <v>0.1896605722850613</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06046854079242094</v>
+        <v>0.05240590264223428</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2497840002.076754</v>
+        <v>2089553714.831645</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08571617116874551</v>
+        <v>0.09981191692263924</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04512933979193448</v>
+        <v>0.03088064938134303</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4372596175.826777</v>
+        <v>3261777209.21788</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1279059567562818</v>
+        <v>0.1087590508986827</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03413156217128716</v>
+        <v>0.04905195741128284</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>236</v>
+      </c>
+      <c r="J93" t="n">
+        <v>490</v>
+      </c>
+      <c r="K93" t="n">
+        <v>22.98827527750135</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1981767060.045975</v>
+        <v>2323904623.271881</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1209891169252042</v>
+        <v>0.1466473658849027</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03672451735571006</v>
+        <v>0.03302021244417</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3102792640.234783</v>
+        <v>2825179841.047501</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09750692064112898</v>
+        <v>0.09811472768113856</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05175367604612041</v>
+        <v>0.04063195934643487</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2329274027.510676</v>
+        <v>1819893334.221353</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1392904457772855</v>
+        <v>0.08595306979697885</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04502253450056987</v>
+        <v>0.04389076121615785</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4582118305.77987</v>
+        <v>4113448383.038736</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1295762931633569</v>
+        <v>0.1728803029943913</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01916069355239754</v>
+        <v>0.02458445310175001</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>255</v>
+      </c>
+      <c r="J97" t="n">
+        <v>491</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3933954178.495354</v>
+        <v>2742248510.655553</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1113033620583587</v>
+        <v>0.1052508407396268</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02582533717726047</v>
+        <v>0.0208345062751723</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>125</v>
+      </c>
+      <c r="J98" t="n">
+        <v>491</v>
+      </c>
+      <c r="K98" t="n">
+        <v>29.8183847445821</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2500484982.03548</v>
+        <v>3199669810.469728</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1481013412905327</v>
+        <v>0.1018302275308385</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02524857499787916</v>
+        <v>0.02889818483738842</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3779388828.786295</v>
+        <v>3356232155.425587</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1721753075655665</v>
+        <v>0.1567683711984325</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01959313080463281</v>
+        <v>0.02040218103751604</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>229</v>
+      </c>
+      <c r="J100" t="n">
+        <v>490</v>
+      </c>
+      <c r="K100" t="n">
+        <v>28.5327911961022</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2989469169.726451</v>
+        <v>2937213793.83239</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2221800416635326</v>
+        <v>0.1762132090570281</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04092224188126115</v>
+        <v>0.03652708571673413</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
